--- a/L1-Ergebnisse-Edge.xlsx
+++ b/L1-Ergebnisse-Edge.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D945A2-6FAC-458A-A5DF-F32F0BDBAAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166D39C-185B-4A1E-9C09-5FCB54B730E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -106,6 +122,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vergleich FTP-Algorithmen in L1 - Randdaten </cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in L1 - Randdaten </a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8F7002AE-F8F0-456A-AD13-007DC82D7055}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{87AC5270-81BD-4B1A-BC54-C7F7D2B64A75}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2AFE2329-D45D-46DA-83C3-A509A1CCACCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6D38E3-79A2-0F87-9EA1-8378BA4E09D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3082925" y="365125"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +1276,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7310,5 +8158,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/L1-Ergebnisse-Edge.xlsx
+++ b/L1-Ergebnisse-Edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484BAE0E-D8DE-4172-99D4-38257BBADF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDAC59-DF80-466E-9669-1988BA22396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -67,6 +60,24 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -134,26 +145,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -185,7 +196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{16754998-94AC-49C7-9D5A-64C4DC6C1043}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>best_next_aktive_robot</cx:v>
             </cx:txData>
           </cx:tx>
@@ -197,7 +208,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B67F6119-4D92-4AAC-B24E-412A62196E20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>on_roboter_permutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -209,7 +220,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AB19CDF1-A97A-49BC-9CCE-8FEC26BA1267}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>greedy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -862,16 +873,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -907,7 +918,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3584575" y="676275"/>
+              <a:off x="0" y="384175"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1258,15 +1269,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M224" sqref="M224"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1308,23 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1332,8 +1358,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1367,8 +1408,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.0970634646633979</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.6423841059602649</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>2.5990086963253396E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1402,8 +1458,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.1781929781778764</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.661764705882353</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>4.8110471084719546E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1437,8 +1508,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.1702226346502518</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.6570397111913358</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>4.3293905916203287E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1472,8 +1559,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.2341108985336189</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>2.0288461538461537</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>6.00646520415423E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1507,8 +1610,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.3330327832905911</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>2.0103092783505154</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>5.2092578878027117E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1542,8 +1661,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.3279415507126786</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>2.0498338870431896</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>6.9022961954238862E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1577,8 +1712,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.3527891869584159</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>1.797583081570997</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>4.5556548016270834E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1612,8 +1763,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.4665478137004484</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>2.1322033898305084</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>4.6780260555373314E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1648,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1683,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1717,8 +1884,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1752,8 +1949,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>6.9022961954238862E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>4.9476053809025227E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1787,8 +2014,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0389346720983041</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.2816901408450705</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>5.1982732512161154E-3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0389346720983041</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.2816901408450705</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>5.1982732512161154E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1822,8 +2079,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1556513944244131</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>1.661764705882353</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>3.4041900360242447E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.1853604886651721</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>1.6397058823529411</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>3.3126717900446509E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1857,8 +2144,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.2436330259811634</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>2.0288461538461537</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>6.0723821534711314E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.2557867221339949</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>1.6498194945848375</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>4.1514411612224612E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1892,8 +2211,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.2410458878272845</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>1.6262626262626263</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>4.3785465730305687E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2507523882115352</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>1.6498194945848375</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>4.785970506068097E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1927,8 +2278,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2991303215254171</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.6324503311258278</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>4.1112775101249686E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2526492204140018</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.6324503311258278</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>3.7808394127534298E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1962,8 +2345,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3564604543844236</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>2.040133779264214</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>5.9335359274077272E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.3724795112003259</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>1.6645569620253164</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>3.7495954026566351E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1997,8 +2412,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.4063318381636054</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>1.7342657342657342</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>3.978586314628399E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.439820834568609</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>1.6915254237288135</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>3.0706501241309012E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2032,8 +2479,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.5302104515438906</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>2.1808510638297873</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>5.8353272612752548E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.5654523299374263</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>2.1808510638297873</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>4.1816259155985414E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2068,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2103,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2137,8 +2616,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2173,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2208,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2243,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2278,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2313,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2348,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3596,15 +4076,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1.4885245901639343</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1.1868852459016392</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1.1868852459016392</v>
       </c>
     </row>
@@ -3631,15 +4111,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3666,15 +4146,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3701,15 +4181,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3736,15 +4216,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3771,15 +4251,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1769911504424779</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1061946902654867</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1061946902654867</v>
       </c>
     </row>
@@ -3806,15 +4286,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1945525291828794</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1945525291828794</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1945525291828794</v>
       </c>
     </row>
@@ -3841,15 +4321,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3876,15 +4356,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4939024390243902</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0182926829268293</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0182926829268293</v>
       </c>
     </row>
@@ -3911,15 +4391,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1368078175895766</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1368078175895766</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1368078175895766</v>
       </c>
     </row>
@@ -3946,15 +4426,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3981,15 +4461,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1518987341772151</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1265822784810127</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1265822784810127</v>
       </c>
     </row>
@@ -4016,15 +4496,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0763358778625953</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4051,15 +4531,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4086,15 +4566,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4121,15 +4601,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0241935483870968</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4156,15 +4636,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4191,15 +4671,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4226,15 +4706,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4261,15 +4741,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1275862068965516</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0448275862068965</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0448275862068965</v>
       </c>
     </row>
@@ -4296,15 +4776,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1302681992337165</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1226053639846743</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1226053639846743</v>
       </c>
     </row>
@@ -4331,15 +4811,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4366,15 +4846,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4401,15 +4881,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4436,15 +4916,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4471,15 +4951,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4506,15 +4986,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4541,15 +5021,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5424354243542435</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1070110701107012</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1070110701107012</v>
       </c>
     </row>
@@ -4576,15 +5056,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4611,15 +5091,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4646,15 +5126,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1829268292682926</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1829268292682926</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1829268292682926</v>
       </c>
     </row>
@@ -4681,15 +5161,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2640264026402641</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2244224422442245</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2244224422442245</v>
       </c>
     </row>
@@ -4716,15 +5196,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4751,15 +5231,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0167364016736402</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4786,15 +5266,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4821,15 +5301,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0084388185654007</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0084388185654007</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2025316455696202</v>
       </c>
     </row>
@@ -4856,15 +5336,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.40117994100295</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1651917404129795</v>
       </c>
     </row>
@@ -4891,15 +5371,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4066265060240963</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4066265060240963</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4926,15 +5406,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4961,15 +5441,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0338164251207729</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2173913043478262</v>
       </c>
     </row>
@@ -4996,15 +5476,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0883720930232559</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0883720930232559</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0883720930232559</v>
       </c>
     </row>
@@ -5031,15 +5511,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5256410256410255</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4743589743589745</v>
       </c>
     </row>
@@ -5066,15 +5546,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1597222222222223</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1597222222222223</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1944444444444444</v>
       </c>
     </row>
@@ -5101,15 +5581,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5266666666666666</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5266666666666666</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -5136,15 +5616,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3696369636963697</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0132013201320131</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0132013201320131</v>
       </c>
     </row>
@@ -5171,15 +5651,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0458015267175573</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0458015267175573</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0458015267175573</v>
       </c>
     </row>
@@ -5206,15 +5686,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5241,15 +5721,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2237288135593221</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2237288135593221</v>
       </c>
     </row>
@@ -5276,15 +5756,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1309523809523809</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1309523809523809</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2261904761904763</v>
       </c>
     </row>
@@ -5311,15 +5791,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5488215488215489</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5016835016835017</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2053872053872055</v>
       </c>
     </row>
@@ -5346,15 +5826,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1292775665399239</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1292775665399239</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1292775665399239</v>
       </c>
     </row>
@@ -5381,15 +5861,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.291784702549575</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.291784702549575</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5416,15 +5896,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2931726907630523</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2931726907630523</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.285140562248996</v>
       </c>
     </row>
@@ -5451,15 +5931,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0219780219780219</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0219780219780219</v>
       </c>
     </row>
@@ -5486,15 +5966,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0933333333333333</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0933333333333333</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2066666666666668</v>
       </c>
     </row>
@@ -5521,15 +6001,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.378125</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.296875</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.015625</v>
       </c>
     </row>
@@ -5556,15 +6036,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0274914089347078</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0274914089347078</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0274914089347078</v>
       </c>
     </row>
@@ -5591,15 +6071,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.576271186440678</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.576271186440678</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.576271186440678</v>
       </c>
     </row>
@@ -5626,15 +6106,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2157676348547717</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2157676348547717</v>
       </c>
     </row>
@@ -5661,15 +6141,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.405693950177936</v>
       </c>
     </row>
@@ -5696,15 +6176,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1925925925925926</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1925925925925926</v>
       </c>
     </row>
@@ -5731,15 +6211,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5620915032679739</v>
       </c>
     </row>
@@ -5766,15 +6246,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5528169014084507</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5801,15 +6281,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.088560885608856</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.088560885608856</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.088560885608856</v>
       </c>
     </row>
@@ -5836,15 +6316,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1.1085526315789473</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1.1085526315789473</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>1.0296052631578947</v>
       </c>
     </row>
@@ -5871,15 +6351,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4567901234567902</v>
       </c>
     </row>
@@ -5906,15 +6386,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5338345864661653</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5338345864661653</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1578947368421053</v>
       </c>
     </row>
@@ -5941,15 +6421,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5976,15 +6456,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0361990950226245</v>
       </c>
     </row>
@@ -6011,15 +6491,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1830065359477124</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0130718954248366</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1437908496732025</v>
       </c>
     </row>
@@ -6046,15 +6526,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.661764705882353</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.661764705882353</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6397058823529411</v>
       </c>
     </row>
@@ -6081,15 +6561,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6360294117647058</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4852941176470589</v>
       </c>
     </row>
@@ -6116,15 +6596,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6151,15 +6631,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4269005847953216</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0409356725146199</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4269005847953216</v>
       </c>
     </row>
@@ -6186,15 +6666,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.201834862385321</v>
       </c>
     </row>
@@ -6221,15 +6701,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6262626262626263</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2525252525252526</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2525252525252526</v>
       </c>
     </row>
@@ -6256,15 +6736,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.379746835443038</v>
       </c>
     </row>
@@ -6291,15 +6771,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0819209039548023</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0819209039548023</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6326,15 +6806,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1185185185185185</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0814814814814815</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1185185185185185</v>
       </c>
     </row>
@@ -6361,15 +6841,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2190476190476192</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2190476190476192</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2190476190476192</v>
       </c>
     </row>
@@ -6396,15 +6876,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.04337899543379</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.04337899543379</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0022831050228311</v>
       </c>
     </row>
@@ -6431,15 +6911,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5614035087719298</v>
       </c>
     </row>
@@ -6466,15 +6946,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1959459459459461</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1959459459459461</v>
       </c>
     </row>
@@ -6501,15 +6981,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.103448275862069</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.103448275862069</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.103448275862069</v>
       </c>
     </row>
@@ -6536,15 +7016,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0066666666666666</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0066666666666666</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0066666666666666</v>
       </c>
     </row>
@@ -6571,15 +7051,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1202185792349726</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1639344262295082</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1639344262295082</v>
       </c>
     </row>
@@ -6606,15 +7086,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3133514986376023</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2643051771117166</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2643051771117166</v>
       </c>
     </row>
@@ -6641,15 +7121,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4982332155477032</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4204946996466432</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3992932862190812</v>
       </c>
     </row>
@@ -6676,15 +7156,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5367412140575081</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5367412140575081</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5367412140575081</v>
       </c>
     </row>
@@ -6711,15 +7191,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0471976401179941</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0471976401179941</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0471976401179941</v>
       </c>
     </row>
@@ -6746,15 +7226,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4651162790697674</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5116279069767442</v>
       </c>
     </row>
@@ -6781,15 +7261,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4358108108108107</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5810810810810811</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5810810810810811</v>
       </c>
     </row>
@@ -6816,15 +7296,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6045016077170418</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6045016077170418</v>
       </c>
     </row>
@@ -6851,15 +7331,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5623003194888179</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5623003194888179</v>
       </c>
     </row>
@@ -6886,15 +7366,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2071428571428571</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3571428571428572</v>
       </c>
     </row>
@@ -6921,15 +7401,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0419580419580419</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0419580419580419</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0629370629370629</v>
       </c>
     </row>
@@ -6956,15 +7436,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.146031746031746</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1301587301587301</v>
       </c>
     </row>
@@ -6991,15 +7471,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0914634146341464</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0060975609756098</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0060975609756098</v>
       </c>
     </row>
@@ -7026,15 +7506,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1959798994974875</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2160804020100502</v>
       </c>
     </row>
@@ -7061,15 +7541,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.167883211678832</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.167883211678832</v>
       </c>
     </row>
@@ -7096,15 +7576,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3003533568904593</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3003533568904593</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3003533568904593</v>
       </c>
     </row>
@@ -7131,15 +7611,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.134453781512605</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2184873949579831</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.134453781512605</v>
       </c>
     </row>
@@ -7166,15 +7646,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4794952681388012</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4763406940063091</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4763406940063091</v>
       </c>
     </row>
@@ -7201,15 +7681,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0267558528428093</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0267558528428093</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0267558528428093</v>
       </c>
     </row>
@@ -7236,15 +7716,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6570397111913358</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0433212996389891</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6498194945848375</v>
       </c>
     </row>
@@ -7271,15 +7751,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7306,15 +7786,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7341,15 +7821,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0453074433656957</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1294498381877023</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1294498381877023</v>
       </c>
     </row>
@@ -7376,15 +7856,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3173431734317342</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3173431734317342</v>
       </c>
     </row>
@@ -7411,15 +7891,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.498422712933754</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.498422712933754</v>
       </c>
     </row>
@@ -7446,15 +7926,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4391025641025641</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7481,15 +7961,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3692307692307693</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0892307692307692</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0892307692307692</v>
       </c>
     </row>
@@ -7516,15 +7996,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0077922077922077</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3116883116883118</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3116883116883118</v>
       </c>
     </row>
@@ -7551,15 +8031,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2866043613707165</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5981308411214954</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5981308411214954</v>
       </c>
     </row>
@@ -7586,15 +8066,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3214285714285714</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3214285714285714</v>
       </c>
     </row>
@@ -7621,15 +8101,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6081081081081081</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4391891891891893</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4391891891891893</v>
       </c>
     </row>
@@ -7656,15 +8136,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7691,15 +8171,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5133689839572193</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3529411764705883</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3529411764705883</v>
       </c>
     </row>
@@ -7726,15 +8206,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0883280757097791</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3280757097791798</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3280757097791798</v>
       </c>
     </row>
@@ -7761,15 +8241,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3050847457627119</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3050847457627119</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3050847457627119</v>
       </c>
     </row>
@@ -7796,15 +8276,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1131639722863742</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0623556581986142</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0623556581986142</v>
       </c>
     </row>
@@ -7831,15 +8311,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0395061728395061</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.019753086419753</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.019753086419753</v>
       </c>
     </row>
@@ -7866,15 +8346,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7901,15 +8381,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1094339622641509</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1094339622641509</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.090566037735849</v>
       </c>
     </row>
@@ -7936,15 +8416,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6190476190476191</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6476190476190475</v>
       </c>
     </row>
@@ -7971,15 +8451,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0567375886524824</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0567375886524824</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0567375886524824</v>
       </c>
     </row>
@@ -8006,15 +8486,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.09375</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.09375</v>
       </c>
     </row>
@@ -8041,15 +8521,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.632996632996633</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6262626262626263</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6262626262626263</v>
       </c>
     </row>
@@ -8076,15 +8556,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1.32</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.5933333333333333</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.5933333333333333</v>
       </c>
     </row>
@@ -8111,15 +8591,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0483870967741935</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.217741935483871</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.092741935483871</v>
       </c>
     </row>
@@ -8146,15 +8626,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0785714285714285</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0785714285714285</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0785714285714285</v>
       </c>
     </row>
@@ -8181,15 +8661,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0387096774193549</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0387096774193549</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0387096774193549</v>
       </c>
     </row>
@@ -8216,15 +8696,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0865384615384615</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1105769230769231</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1105769230769231</v>
       </c>
     </row>
@@ -8251,15 +8731,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0137457044673539</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0137457044673539</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0137457044673539</v>
       </c>
     </row>
@@ -8286,15 +8766,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4773413897280967</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3746223564954683</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3746223564954683</v>
       </c>
     </row>
@@ -8321,15 +8801,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3066202090592334</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2160278745644599</v>
       </c>
     </row>
@@ -8356,15 +8836,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.8219584569732938</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4183976261127595</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4183976261127595</v>
       </c>
     </row>
@@ -8391,15 +8871,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0874035989717223</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2827763496143958</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2159383033419022</v>
       </c>
     </row>
@@ -8426,15 +8906,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2207446808510638</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0851063829787233</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0851063829787233</v>
       </c>
     </row>
@@ -8461,15 +8941,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8496,15 +8976,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.0288461538461537</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5673076923076923</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4647435897435896</v>
       </c>
     </row>
@@ -8531,15 +9011,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2507462686567163</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2507462686567163</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2507462686567163</v>
       </c>
     </row>
@@ -8566,15 +9046,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4847457627118643</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4033898305084747</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4847457627118643</v>
       </c>
     </row>
@@ -8601,15 +9081,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0268456375838926</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0268456375838926</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0268456375838926</v>
       </c>
     </row>
@@ -8636,15 +9116,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0764331210191083</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0095541401273886</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0095541401273886</v>
       </c>
     </row>
@@ -8671,15 +9151,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0451612903225806</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2774193548387096</v>
       </c>
     </row>
@@ -8706,15 +9186,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2267002518891688</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2871536523929472</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2871536523929472</v>
       </c>
     </row>
@@ -8741,15 +9221,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6016713091922006</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2674094707520891</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3036211699164346</v>
       </c>
     </row>
@@ -8776,15 +9256,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1870129870129871</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.264935064935065</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.264935064935065</v>
       </c>
     </row>
@@ -8811,15 +9291,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.8267477203647415</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4437689969604863</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4133738601823709</v>
       </c>
     </row>
@@ -8846,15 +9326,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5466237942122187</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1093247588424437</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1093247588424437</v>
       </c>
     </row>
@@ -8881,15 +9361,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1707317073170731</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2086720867208671</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1869918699186992</v>
       </c>
     </row>
@@ -8916,15 +9396,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1823899371069182</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8951,15 +9431,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1042345276872965</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3452768729641693</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3452768729641693</v>
       </c>
     </row>
@@ -8986,15 +9466,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2654320987654322</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2654320987654322</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2654320987654322</v>
       </c>
     </row>
@@ -9021,15 +9501,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0421052631578946</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1263157894736842</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1263157894736842</v>
       </c>
     </row>
@@ -9056,15 +9536,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2996845425867507</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9091,15 +9571,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9126,15 +9606,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4142394822006472</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3365695792880259</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3365695792880259</v>
       </c>
     </row>
@@ -9161,15 +9641,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0501567398119123</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0501567398119123</v>
       </c>
     </row>
@@ -9196,15 +9676,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1734104046242775</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3121387283236994</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4277456647398843</v>
       </c>
     </row>
@@ -9231,15 +9711,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2450980392156863</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2450980392156863</v>
       </c>
     </row>
@@ -9266,15 +9746,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4493670886075949</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0759493670886076</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2025316455696202</v>
       </c>
     </row>
@@ -9301,15 +9781,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3821656050955413</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0859872611464969</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0955414012738853</v>
       </c>
     </row>
@@ -9336,15 +9816,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3233532934131738</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3233532934131738</v>
       </c>
     </row>
@@ -9371,15 +9851,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4548387096774194</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0516129032258064</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0516129032258064</v>
       </c>
     </row>
@@ -9406,15 +9886,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0262295081967212</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0786885245901638</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0262295081967212</v>
       </c>
     </row>
@@ -9441,15 +9921,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2588996763754046</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2588996763754046</v>
       </c>
     </row>
@@ -9476,15 +9956,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4409937888198758</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0869565217391304</v>
       </c>
     </row>
@@ -9511,15 +9991,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1658031088082901</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0932642487046633</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0932642487046633</v>
       </c>
     </row>
@@ -9546,15 +10026,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0750853242320819</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1023890784982935</v>
       </c>
     </row>
@@ -9581,15 +10061,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.447129909365559</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1510574018126889</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1510574018126889</v>
       </c>
     </row>
@@ -9616,15 +10096,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0213523131672597</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3701067615658362</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3701067615658362</v>
       </c>
     </row>
@@ -9651,15 +10131,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1875</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5327380952380953</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5327380952380953</v>
       </c>
     </row>
@@ -9686,15 +10166,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0195439739413681</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0195439739413681</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0195439739413681</v>
       </c>
     </row>
@@ -9721,15 +10201,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0461538461538462</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0307692307692307</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0307692307692307</v>
       </c>
     </row>
@@ -9756,15 +10236,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3846153846153846</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5032051282051282</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5032051282051282</v>
       </c>
     </row>
@@ -9791,15 +10271,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0142348754448398</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1565836298932384</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1565836298932384</v>
       </c>
     </row>
@@ -9826,15 +10306,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4230769230769231</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4230769230769231</v>
       </c>
     </row>
@@ -9861,15 +10341,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2344827586206897</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3655172413793104</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3655172413793104</v>
       </c>
     </row>
@@ -9896,15 +10376,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3128342245989304</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3128342245989304</v>
       </c>
     </row>
@@ -9931,15 +10411,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3703703703703705</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3765432098765431</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3395061728395061</v>
       </c>
     </row>
@@ -9966,15 +10446,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5412541254125414</v>
       </c>
     </row>
@@ -10001,15 +10481,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.175531914893617</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3936170212765957</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3936170212765957</v>
       </c>
     </row>
@@ -10036,15 +10516,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0363636363636364</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3272727272727274</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3781818181818182</v>
       </c>
     </row>
@@ -10071,15 +10551,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4470198675496688</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6324503311258278</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6324503311258278</v>
       </c>
     </row>
@@ -10106,15 +10586,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0729927007299269</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4744525547445255</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1021897810218979</v>
       </c>
     </row>
@@ -10141,15 +10621,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3764044943820224</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1573033707865168</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1573033707865168</v>
       </c>
     </row>
@@ -10176,15 +10656,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5544554455445545</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3201320132013201</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3564356435643565</v>
       </c>
     </row>
@@ -10211,15 +10691,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5135135135135136</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5135135135135136</v>
       </c>
     </row>
@@ -10246,15 +10726,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4872611464968153</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1433121019108281</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1433121019108281</v>
       </c>
     </row>
@@ -10281,15 +10761,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0277777777777777</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5590277777777777</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5590277777777777</v>
       </c>
     </row>
@@ -10316,15 +10796,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1.3101265822784811</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1.4936708860759493</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1.4873417721518987</v>
       </c>
     </row>
@@ -10351,15 +10831,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.161904761904762</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10386,15 +10866,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5928338762214984</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1237785016286646</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0716612377850163</v>
       </c>
     </row>
@@ -10421,15 +10901,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1245551601423487</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5124555160142348</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5124555160142348</v>
       </c>
     </row>
@@ -10456,15 +10936,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4158415841584158</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0222772277227723</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1683168316831682</v>
       </c>
     </row>
@@ -10491,15 +10971,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4193548387096775</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4967741935483871</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0838709677419356</v>
       </c>
     </row>
@@ -10526,15 +11006,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7070063694267517</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5477707006369428</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5477707006369428</v>
       </c>
     </row>
@@ -10561,15 +11041,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.498371335504886</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0749185667752443</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0749185667752443</v>
       </c>
     </row>
@@ -10596,15 +11076,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6097560975609757</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1036585365853659</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0731707317073171</v>
       </c>
     </row>
@@ -10631,15 +11111,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0064308681672025</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0064308681672025</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0064308681672025</v>
       </c>
     </row>
@@ -10666,15 +11146,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4702380952380953</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2619047619047619</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2619047619047619</v>
       </c>
     </row>
@@ -10701,15 +11181,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4586206896551723</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.106896551724138</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.106896551724138</v>
       </c>
     </row>
@@ -10736,15 +11216,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2990654205607477</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1993769470404985</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1993769470404985</v>
       </c>
     </row>
@@ -10771,15 +11251,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1245674740484428</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6124567474048443</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0553633217993079</v>
       </c>
     </row>
@@ -10806,15 +11286,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6267029972752043</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4032697547683923</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2888283378746594</v>
       </c>
     </row>
@@ -10841,15 +11321,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4105960264900663</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5364238410596027</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1125827814569536</v>
       </c>
     </row>
@@ -10876,15 +11356,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.011204481792717</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2633053221288515</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2633053221288515</v>
       </c>
     </row>
@@ -10911,15 +11391,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6254826254826256</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6023166023166022</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2007722007722008</v>
       </c>
     </row>
@@ -10946,15 +11426,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3875</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3875</v>
       </c>
     </row>
@@ -10981,15 +11461,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1092150170648465</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1092150170648465</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0546075085324231</v>
       </c>
     </row>
@@ -11016,15 +11496,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3104575163398693</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5751633986928104</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5751633986928104</v>
       </c>
     </row>
@@ -11051,15 +11531,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.098360655737705</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11086,15 +11566,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.411764705882353</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.130718954248366</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.130718954248366</v>
       </c>
     </row>
@@ -11121,15 +11601,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4121037463976944</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2103746397694524</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2103746397694524</v>
       </c>
     </row>
@@ -11156,15 +11636,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5442622950819671</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5508196721311476</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0327868852459017</v>
       </c>
     </row>
@@ -11191,15 +11671,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0614334470989761</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2184300341296928</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4846416382252561</v>
       </c>
     </row>
@@ -11226,15 +11706,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3385579937304075</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3385579937304075</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1504702194357366</v>
       </c>
     </row>
@@ -11261,15 +11741,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4291044776119404</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2798507462686568</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2798507462686568</v>
       </c>
     </row>
@@ -11296,15 +11776,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4466666666666668</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1766666666666667</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1766666666666667</v>
       </c>
     </row>
@@ -11331,15 +11811,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4259259259259258</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0123456790123457</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0123456790123457</v>
       </c>
     </row>
@@ -11366,15 +11846,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4606060606060607</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4606060606060607</v>
       </c>
     </row>
@@ -11401,15 +11881,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1994134897360704</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4076246334310851</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4076246334310851</v>
       </c>
     </row>
@@ -11436,15 +11916,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5784615384615384</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.32</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3138461538461539</v>
       </c>
     </row>
@@ -11471,15 +11951,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3583617747440273</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2457337883959045</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2457337883959045</v>
       </c>
     </row>
@@ -11506,15 +11986,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0405797101449274</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4231884057971014</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4231884057971014</v>
       </c>
     </row>
@@ -11541,15 +12021,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5205479452054795</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.202054794520548</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.202054794520548</v>
       </c>
     </row>
@@ -11576,15 +12056,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3160919540229885</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11611,15 +12091,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4798761609907121</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1393188854489165</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1393188854489165</v>
       </c>
     </row>
@@ -11646,15 +12126,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.411764705882353</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5359477124183007</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5359477124183007</v>
       </c>
     </row>
@@ -11681,15 +12161,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1093333333333333</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.272</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.272</v>
       </c>
     </row>
@@ -11716,15 +12196,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0696202531645569</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0253164556962024</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.018987341772152</v>
       </c>
     </row>
@@ -11751,15 +12231,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0103092783505154</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6185567010309279</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6185567010309279</v>
       </c>
     </row>
@@ -11786,15 +12266,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0641891891891893</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1486486486486487</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5202702702702702</v>
       </c>
     </row>
@@ -11821,15 +12301,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2172523961661341</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1022364217252396</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3674121405750799</v>
       </c>
     </row>
@@ -11856,15 +12336,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5774647887323943</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.676056338028169</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3309859154929577</v>
       </c>
     </row>
@@ -11891,15 +12371,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.159375</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1156250000000001</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1156250000000001</v>
       </c>
     </row>
@@ -11926,15 +12406,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5120481927710843</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5542168674698795</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4036144578313252</v>
       </c>
     </row>
@@ -11961,15 +12441,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0495356037151702</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5820433436532508</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5201238390092879</v>
       </c>
     </row>
@@ -11996,15 +12476,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4065573770491804</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5245901639344261</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5245901639344261</v>
       </c>
     </row>
@@ -12031,15 +12511,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.062295081967213</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.062295081967213</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.062295081967213</v>
       </c>
     </row>
@@ -12066,15 +12546,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7320261437908497</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.542483660130719</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.542483660130719</v>
       </c>
     </row>
@@ -12101,15 +12581,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0201342281879195</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0201342281879195</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2416107382550337</v>
       </c>
     </row>
@@ -12136,15 +12616,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1372549019607843</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.130718954248366</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.130718954248366</v>
       </c>
     </row>
@@ -12171,15 +12651,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3027210884353742</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3027210884353742</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6564625850340136</v>
       </c>
     </row>
@@ -12206,15 +12686,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2329545454545454</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0880681818181819</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0539772727272727</v>
       </c>
     </row>
@@ -12241,15 +12721,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3271028037383177</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3271028037383177</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5514018691588785</v>
       </c>
     </row>
@@ -12276,15 +12756,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.325</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1375</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5375000000000001</v>
       </c>
     </row>
@@ -12311,15 +12791,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1681957186544343</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0428134556574924</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2874617737003058</v>
       </c>
     </row>
@@ -12346,15 +12826,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6488294314381271</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6287625418060201</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6153846153846154</v>
       </c>
     </row>
@@ -12381,15 +12861,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0498338870431896</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5780730897009967</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.584717607973422</v>
       </c>
     </row>
@@ -12416,15 +12896,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1502890173410405</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6011560693641618</v>
       </c>
     </row>
@@ -12451,15 +12931,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5923566878980893</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5923566878980893</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5859872611464969</v>
       </c>
     </row>
@@ -12486,15 +12966,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4849498327759196</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.040133779264214</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5652173913043479</v>
       </c>
     </row>
@@ -12521,15 +13001,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1596091205211727</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0553745928338762</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0553745928338762</v>
       </c>
     </row>
@@ -12556,15 +13036,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.3904109589041096</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1.3904109589041096</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.1986301369863013</v>
       </c>
     </row>
@@ -12591,15 +13071,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2267080745341614</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1956521739130435</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4068322981366459</v>
       </c>
     </row>
@@ -12626,15 +13106,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0425531914893618</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4711246200607904</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5501519756838906</v>
       </c>
     </row>
@@ -12661,15 +13141,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4983498349834983</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0990099009900991</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1683168316831682</v>
       </c>
     </row>
@@ -12696,15 +13176,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2522522522522523</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2522522522522523</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2522522522522523</v>
       </c>
     </row>
@@ -12731,15 +13211,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0844155844155845</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.551948051948052</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2272727272727273</v>
       </c>
     </row>
@@ -12766,15 +13246,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3225806451612903</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4225806451612903</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4225806451612903</v>
       </c>
     </row>
@@ -12801,15 +13281,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3095238095238095</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3095238095238095</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.193121693121693</v>
       </c>
     </row>
@@ -12836,15 +13316,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4190476190476191</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4126984126984128</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4190476190476191</v>
       </c>
     </row>
@@ -12871,15 +13351,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.034920634920635</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2126984126984126</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1238095238095238</v>
       </c>
     </row>
@@ -12906,15 +13386,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2364217252396166</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2843450479233227</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.060702875399361</v>
       </c>
     </row>
@@ -12941,15 +13421,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0336700336700337</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.707070707070707</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.606060606060606</v>
       </c>
     </row>
@@ -12976,15 +13456,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0031347962382444</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1222570532915361</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.542319749216301</v>
       </c>
     </row>
@@ -13011,15 +13491,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -13046,15 +13526,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.981012658227848</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9177215189873418</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6645569620253164</v>
       </c>
     </row>
@@ -13081,15 +13561,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5645756457564575</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6715867158671587</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6494464944649447</v>
       </c>
     </row>
@@ -13116,15 +13596,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.808641975308642</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4259259259259258</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4259259259259258</v>
       </c>
     </row>
@@ -13151,15 +13631,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0197368421052631</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5657894736842106</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5657894736842106</v>
       </c>
     </row>
@@ -13186,15 +13666,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.8208955223880596</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3343283582089551</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3701492537313433</v>
       </c>
     </row>
@@ -13221,15 +13701,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2915360501567399</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.567398119122257</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1849529780564263</v>
       </c>
     </row>
@@ -13256,15 +13736,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.056338028169014</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2535211267605635</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1901408450704225</v>
       </c>
     </row>
@@ -13291,15 +13771,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0277777777777777</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2847222222222223</v>
       </c>
     </row>
@@ -13326,15 +13806,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.64797507788162</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6168224299065421</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4797507788161994</v>
       </c>
     </row>
@@ -13361,15 +13841,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4580645161290322</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4580645161290322</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4516129032258065</v>
       </c>
     </row>
@@ -13396,15 +13876,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3216560509554141</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.286624203821656</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.286624203821656</v>
       </c>
     </row>
@@ -13431,15 +13911,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1564625850340136</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.153061224489796</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2448979591836735</v>
       </c>
     </row>
@@ -13466,15 +13946,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2478134110787171</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2478134110787171</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -13501,15 +13981,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3652694610778444</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3652694610778444</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2994011976047903</v>
       </c>
     </row>
@@ -13536,15 +14016,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4595469255663431</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2297734627831716</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5922330097087378</v>
       </c>
     </row>
@@ -13571,15 +14051,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4573378839590443</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5051194539249146</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.546075085324232</v>
       </c>
     </row>
@@ -13606,15 +14086,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4933774834437086</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4735099337748345</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2913907284768211</v>
       </c>
     </row>
@@ -13641,15 +14121,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.778877887788779</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6567656765676568</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6303630363036303</v>
       </c>
     </row>
@@ -13676,15 +14156,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
@@ -13711,15 +14191,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2515151515151515</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0242424242424242</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -13746,15 +14226,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4883720930232558</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5182724252491695</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5282392026578073</v>
       </c>
     </row>
@@ -13781,15 +14261,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2135231316725978</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4483985765124556</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4483985765124556</v>
       </c>
     </row>
@@ -13816,15 +14296,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1590106007067138</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.11660777385159</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1024734982332156</v>
       </c>
     </row>
@@ -13851,15 +14331,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0396039603960396</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7062706270627064</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4686468646864685</v>
       </c>
     </row>
@@ -13886,15 +14366,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0471380471380471</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0067340067340067</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0067340067340067</v>
       </c>
     </row>
@@ -13921,15 +14401,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5846153846153845</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2338461538461538</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.56</v>
       </c>
     </row>
@@ -13956,15 +14436,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6013986013986015</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3636363636363635</v>
       </c>
     </row>
@@ -13991,15 +14471,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0750853242320819</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2764505119453924</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6791808873720135</v>
       </c>
     </row>
@@ -14026,15 +14506,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1048951048951048</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7342657342657342</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5804195804195804</v>
       </c>
     </row>
@@ -14061,15 +14541,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6823104693140793</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6823104693140793</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5379061371841156</v>
       </c>
     </row>
@@ -14096,15 +14576,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5464788732394366</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4591549295774648</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4591549295774648</v>
       </c>
     </row>
@@ -14131,15 +14611,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.797583081570997</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.447129909365559</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4894259818731117</v>
       </c>
     </row>
@@ -14166,15 +14646,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1959459459459461</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1959459459459461</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1891891891891893</v>
       </c>
     </row>
@@ -14201,15 +14681,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1223021582733812</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6258992805755397</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6330935251798562</v>
       </c>
     </row>
@@ -14236,15 +14716,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3772241992882561</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6903914590747331</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6120996441281139</v>
       </c>
     </row>
@@ -14271,15 +14751,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4624999999999999</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.175</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4624999999999999</v>
       </c>
     </row>
@@ -14306,15 +14786,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.428082191780822</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4075342465753424</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.428082191780822</v>
       </c>
     </row>
@@ -14341,15 +14821,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4511784511784511</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5185185185185186</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5723905723905724</v>
       </c>
     </row>
@@ -14376,15 +14856,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2761627906976745</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6453488372093024</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6453488372093024</v>
       </c>
     </row>
@@ -14411,15 +14891,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1137123745819397</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0735785953177257</v>
       </c>
     </row>
@@ -14446,15 +14926,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2642642642642643</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4564564564564564</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6246246246246245</v>
       </c>
     </row>
@@ -14481,15 +14961,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0428134556574924</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4220183486238531</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4801223241590213</v>
       </c>
     </row>
@@ -14516,15 +14996,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7955271565495208</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5271565495207668</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5271565495207668</v>
       </c>
     </row>
@@ -14551,15 +15031,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3161094224924013</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3161094224924013</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3161094224924013</v>
       </c>
     </row>
@@ -14586,15 +15066,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4834437086092715</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.490066225165563</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.490066225165563</v>
       </c>
     </row>
@@ -14621,15 +15101,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5465838509316769</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5931677018633541</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5931677018633541</v>
       </c>
     </row>
@@ -14656,15 +15136,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6940063091482649</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5930599369085174</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6056782334384858</v>
       </c>
     </row>
@@ -14691,15 +15171,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4135593220338982</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7186440677966102</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6915254237288135</v>
       </c>
     </row>
@@ -14726,15 +15206,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5594405594405594</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5874125874125875</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6083916083916083</v>
       </c>
     </row>
@@ -14761,15 +15241,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2492307692307691</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2861538461538462</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2092307692307693</v>
       </c>
     </row>
@@ -14796,15 +15276,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.4141414141414141</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J450" si="22">E387/C387</f>
         <v>1.1414141414141414</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.3198653198653199</v>
       </c>
     </row>
@@ -14831,15 +15311,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3695014662756597</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2932551319648093</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3225806451612903</v>
       </c>
     </row>
@@ -14866,15 +15346,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3235294117647058</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5588235294117647</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5457516339869282</v>
       </c>
     </row>
@@ -14901,15 +15381,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3591331269349844</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2972136222910218</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3591331269349844</v>
       </c>
     </row>
@@ -14936,15 +15416,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1156716417910448</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3246268656716418</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3246268656716418</v>
       </c>
     </row>
@@ -14971,15 +15451,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3374999999999999</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4125000000000001</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5062500000000001</v>
       </c>
     </row>
@@ -15006,15 +15486,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5308219178082192</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3527397260273972</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5445205479452055</v>
       </c>
     </row>
@@ -15041,15 +15521,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3486238532110091</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3119266055045871</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3486238532110091</v>
       </c>
     </row>
@@ -15076,15 +15556,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1716417910447761</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2462686567164178</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2164179104477613</v>
       </c>
     </row>
@@ -15111,15 +15591,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2724252491694352</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2724252491694352</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6445182724252492</v>
       </c>
     </row>
@@ -15146,15 +15626,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4642857142857142</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0681818181818181</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.0779220779220779</v>
       </c>
     </row>
@@ -15181,15 +15661,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5924657534246576</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5376712328767124</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5582191780821917</v>
       </c>
     </row>
@@ -15216,15 +15696,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3536977491961415</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.347266881028939</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5305466237942122</v>
       </c>
     </row>
@@ -15251,15 +15731,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1135531135531136</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0842490842490842</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4358974358974359</v>
       </c>
     </row>
@@ -15286,15 +15766,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.360655737704918</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5639344262295083</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.340983606557377</v>
       </c>
     </row>
@@ -15321,15 +15801,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3624595469255663</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5825242718446602</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3624595469255663</v>
       </c>
     </row>
@@ -15356,15 +15836,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3598726114649682</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5859872611464969</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15391,15 +15871,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4233576642335766</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7518248175182483</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7007299270072993</v>
       </c>
     </row>
@@ -15426,15 +15906,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4873417721518987</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3354430379746836</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4272151898734178</v>
       </c>
     </row>
@@ -15461,15 +15941,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6275167785234899</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4463087248322148</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5771812080536913</v>
       </c>
     </row>
@@ -15496,15 +15976,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6088560885608856</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5571955719557196</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5387453874538746</v>
       </c>
     </row>
@@ -15531,15 +16011,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1212121212121211</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1848484848484848</v>
       </c>
     </row>
@@ -15566,15 +16046,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3515358361774743</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6928327645051195</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6928327645051195</v>
       </c>
     </row>
@@ -15601,15 +16081,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3372434017595307</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3929618768328447</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4516129032258065</v>
       </c>
     </row>
@@ -15636,15 +16116,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6006493506493507</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4837662337662338</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4837662337662338</v>
       </c>
     </row>
@@ -15671,15 +16151,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.0252707581227436</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7148014440433212</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6859205776173285</v>
       </c>
     </row>
@@ -15706,15 +16186,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2056737588652482</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3546099290780143</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3475177304964538</v>
       </c>
     </row>
@@ -15741,15 +16221,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5704918032786885</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5704918032786885</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5836065573770493</v>
       </c>
     </row>
@@ -15776,15 +16256,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0168067226890756</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2521008403361344</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2268907563025211</v>
       </c>
     </row>
@@ -15811,15 +16291,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.536764705882353</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.1654411764705883</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1654411764705883</v>
       </c>
     </row>
@@ -15846,15 +16326,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4756944444444444</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.59375</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4756944444444444</v>
       </c>
     </row>
@@ -15881,15 +16361,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2823529411764707</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4235294117647059</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4676470588235293</v>
       </c>
     </row>
@@ -15916,15 +16396,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.1322033898305084</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0677966101694913</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0677966101694913</v>
       </c>
     </row>
@@ -15951,15 +16431,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3723076923076922</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2523076923076923</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4676923076923076</v>
       </c>
     </row>
@@ -15986,15 +16466,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2946428571428572</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2023809523809523</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4404761904761905</v>
       </c>
     </row>
@@ -16021,15 +16501,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.503125</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.390625</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4281250000000001</v>
       </c>
     </row>
@@ -16056,15 +16536,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6560283687943262</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.1808510638297873</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1808510638297873</v>
       </c>
     </row>
@@ -16091,15 +16571,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6821428571428572</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7428571428571429</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7428571428571429</v>
       </c>
     </row>
@@ -16126,15 +16606,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5338078291814947</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5480427046263345</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5907473309608542</v>
       </c>
     </row>
@@ -16161,15 +16641,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6206896551724137</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.457680250783699</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.457680250783699</v>
       </c>
     </row>
@@ -16196,15 +16676,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2790697674418605</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2403100775193798</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2635658914728682</v>
       </c>
     </row>
@@ -16231,15 +16711,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3284457478005864</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4281524926686218</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6275659824046922</v>
       </c>
     </row>
@@ -16266,15 +16746,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2302631578947369</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8026315789473684</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5723684210526316</v>
       </c>
     </row>
@@ -16301,15 +16781,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6885245901639345</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5278688524590165</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5737704918032787</v>
       </c>
     </row>
@@ -16336,15 +16816,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7040816326530612</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2074829931972788</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6088435374149659</v>
       </c>
     </row>
@@ -16371,15 +16851,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3425076452599389</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5015290519877675</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2874617737003058</v>
       </c>
     </row>
@@ -16406,15 +16886,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5423728813559323</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6169491525423729</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6305084745762712</v>
       </c>
     </row>
@@ -16441,15 +16921,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5269841269841269</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9396825396825397</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4698412698412699</v>
       </c>
     </row>
@@ -16476,15 +16956,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.623728813559322</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5627118644067797</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5627118644067797</v>
       </c>
     </row>
@@ -16511,15 +16991,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5158227848101267</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.379746835443038</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.379746835443038</v>
       </c>
     </row>
@@ -16546,15 +17026,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5672131147540984</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0918032786885246</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.540983606557377</v>
       </c>
     </row>
@@ -16581,15 +17061,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6962962962962962</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5296296296296297</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6814814814814816</v>
       </c>
     </row>
@@ -16616,15 +17096,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5437956204379562</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.551094890510949</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7372262773722629</v>
       </c>
     </row>
@@ -16651,15 +17131,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5104166666666667</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6805555555555556</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7222222222222223</v>
       </c>
     </row>
@@ -16686,15 +17166,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4149659863945578</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4149659863945578</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6326530612244898</v>
       </c>
     </row>
@@ -16721,15 +17201,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.345514950166113</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3521594684385383</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3521594684385383</v>
       </c>
     </row>
@@ -16756,15 +17236,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5345911949685536</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4716981132075471</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5157232704402517</v>
       </c>
     </row>
@@ -16791,15 +17271,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6875</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6944444444444444</v>
       </c>
     </row>
@@ -16826,15 +17306,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3731778425655976</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3498542274052479</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6151603498542273</v>
       </c>
     </row>
@@ -16861,15 +17341,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2623456790123457</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2561728395061729</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3858024691358024</v>
       </c>
     </row>
@@ -16896,15 +17376,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1548821548821548</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6228956228956228</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5622895622895623</v>
       </c>
     </row>
@@ -16931,15 +17411,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.29</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4566666666666668</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8</v>
       </c>
     </row>
@@ -16966,15 +17446,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7636986301369864</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7363013698630136</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5376712328767124</v>
       </c>
     </row>
@@ -17001,15 +17481,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.405693950177936</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7046263345195729</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7046263345195729</v>
       </c>
     </row>
@@ -17036,15 +17516,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451:I452" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.4747474747474747</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451" si="22">E451/C451</f>
+        <f t="shared" ref="J451" si="25">E451/C451</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="23">F451/C451</f>
+        <f t="shared" ref="K451" si="26">F451/C451</f>
         <v>1.5589225589225588</v>
       </c>
     </row>
